--- a/state_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
+++ b/state_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U241"/>
+  <dimension ref="A1:U262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="G2" t="n">
-        <v>4.54558340151342</v>
+        <v>4.57663930678155</v>
       </c>
       <c r="H2" t="n">
         <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>11.48264</v>
+        <v>9.546150000000001</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>7.243</v>
+        <v>7.867</v>
       </c>
       <c r="N2" t="n">
-        <v>8.946</v>
+        <v>8.95866</v>
       </c>
       <c r="O2" t="n">
         <v>1820788</v>
@@ -651,7 +651,7 @@
         <v>0.005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0050469906699979</v>
+        <v>0.0051164185462647</v>
       </c>
       <c r="H3" t="n">
         <v>0.013</v>
@@ -732,7 +732,7 @@
         <v>0.005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0050469906699979</v>
+        <v>0.0051164185462647</v>
       </c>
       <c r="H4" t="n">
         <v>0.013</v>
@@ -813,7 +813,7 @@
         <v>48.5</v>
       </c>
       <c r="G5" t="n">
-        <v>648.415376305229</v>
+        <v>648.41881563974</v>
       </c>
       <c r="H5" t="n">
         <v>17329</v>
@@ -898,7 +898,7 @@
         <v>48.5</v>
       </c>
       <c r="G6" t="n">
-        <v>648.415376305229</v>
+        <v>648.41881563974</v>
       </c>
       <c r="H6" t="n">
         <v>17329</v>
@@ -983,7 +983,7 @@
         <v>48.5</v>
       </c>
       <c r="G7" t="n">
-        <v>648.415376305229</v>
+        <v>648.41881563974</v>
       </c>
       <c r="H7" t="n">
         <v>17329</v>
@@ -1068,7 +1068,7 @@
         <v>48.5</v>
       </c>
       <c r="G8" t="n">
-        <v>648.415376305229</v>
+        <v>648.41881563974</v>
       </c>
       <c r="H8" t="n">
         <v>17329</v>
@@ -1153,7 +1153,7 @@
         <v>0.00065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0018540189094093</v>
+        <v>0.0018572996382119</v>
       </c>
       <c r="H9" t="n">
         <v>0.03</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00086</v>
+        <v>0.00087</v>
       </c>
       <c r="M9" t="n">
         <v>0.00341</v>
@@ -1234,7 +1234,7 @@
         <v>0.00065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0018540189094093</v>
+        <v>0.0018572996382119</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00086</v>
+        <v>0.00087</v>
       </c>
       <c r="M10" t="n">
         <v>0.00341</v>
@@ -1315,7 +1315,7 @@
         <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0902950790697073</v>
+        <v>0.0902430743933697</v>
       </c>
       <c r="H11" t="n">
         <v>0.28</v>
@@ -1396,7 +1396,7 @@
         <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0902950790697073</v>
+        <v>0.0902430743933697</v>
       </c>
       <c r="H12" t="n">
         <v>0.28</v>
@@ -1473,7 +1473,7 @@
         <v>0.0745</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0844684923614621</v>
+        <v>0.0845233039045105</v>
       </c>
       <c r="H13" t="n">
         <v>0.285</v>
@@ -1484,10 +1484,10 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.03</v>
+        <v>0.02975</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1329</v>
+        <v>0.13325</v>
       </c>
       <c r="N13" t="n">
         <v>0.1778</v>
@@ -1550,7 +1550,7 @@
         <v>0.0745</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0844684923614621</v>
+        <v>0.0845233039045105</v>
       </c>
       <c r="H14" t="n">
         <v>0.285</v>
@@ -1561,10 +1561,10 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.03</v>
+        <v>0.02975</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1329</v>
+        <v>0.13325</v>
       </c>
       <c r="N14" t="n">
         <v>0.1778</v>
@@ -1631,13 +1631,13 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.69562184453588</v>
+        <v>4.66365427583445</v>
       </c>
       <c r="H15" t="n">
         <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>11.48264</v>
+        <v>9.546150000000001</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1645,10 +1645,10 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>7.867</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>8.963010000000001</v>
+        <v>8.95866</v>
       </c>
       <c r="O15" t="n">
         <v>1820788</v>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.00271</v>
+        <v>0.00286</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0042554631433366</v>
+        <v>0.004345983441948</v>
       </c>
       <c r="H16" t="n">
         <v>0.0115</v>
@@ -1723,7 +1723,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.00442</v>
+        <v>0.0045</v>
       </c>
       <c r="M16" t="n">
         <v>0.007</v>
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.00271</v>
+        <v>0.00286</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0042554631433366</v>
+        <v>0.004345983441948</v>
       </c>
       <c r="H17" t="n">
         <v>0.0115</v>
@@ -1804,7 +1804,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.00442</v>
+        <v>0.0045</v>
       </c>
       <c r="M17" t="n">
         <v>0.007</v>
@@ -1874,7 +1874,7 @@
         <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>666.6620207850671</v>
+        <v>666.664419652177</v>
       </c>
       <c r="H18" t="n">
         <v>17329</v>
@@ -1959,7 +1959,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>666.6620207850671</v>
+        <v>666.664419652177</v>
       </c>
       <c r="H19" t="n">
         <v>17329</v>
@@ -2044,7 +2044,7 @@
         <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>666.6620207850671</v>
+        <v>666.664419652177</v>
       </c>
       <c r="H20" t="n">
         <v>17329</v>
@@ -2129,7 +2129,7 @@
         <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>666.6620207850671</v>
+        <v>666.664419652177</v>
       </c>
       <c r="H21" t="n">
         <v>17329</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.00076</v>
+        <v>0.00077</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0019523615262761</v>
+        <v>0.0019553789471048</v>
       </c>
       <c r="H22" t="n">
         <v>0.03</v>
@@ -2225,7 +2225,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.00082</v>
+        <v>0.00083</v>
       </c>
       <c r="M22" t="n">
         <v>0.00308</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00076</v>
+        <v>0.00077</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0019523615262761</v>
+        <v>0.0019553789471048</v>
       </c>
       <c r="H23" t="n">
         <v>0.03</v>
@@ -2306,7 +2306,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00082</v>
+        <v>0.00083</v>
       </c>
       <c r="M23" t="n">
         <v>0.00308</v>
@@ -2376,7 +2376,7 @@
         <v>0.074</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0837584937038537</v>
+        <v>0.0837064890275161</v>
       </c>
       <c r="H24" t="n">
         <v>0.28</v>
@@ -2457,7 +2457,7 @@
         <v>0.074</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0837584937038537</v>
+        <v>0.0837064890275161</v>
       </c>
       <c r="H25" t="n">
         <v>0.28</v>
@@ -2534,7 +2534,7 @@
         <v>0.0745</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0803184923614621</v>
+        <v>0.0803649705711772</v>
       </c>
       <c r="H26" t="n">
         <v>0.285</v>
@@ -2545,13 +2545,13 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.0305</v>
+        <v>0.03025</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1285</v>
+        <v>0.12865</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1658</v>
+        <v>0.16595</v>
       </c>
       <c r="O26" t="n">
         <v>1820788</v>
@@ -2611,7 +2611,7 @@
         <v>0.0745</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0803184923614621</v>
+        <v>0.0803649705711772</v>
       </c>
       <c r="H27" t="n">
         <v>0.285</v>
@@ -2622,13 +2622,13 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.0305</v>
+        <v>0.03025</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1285</v>
+        <v>0.12865</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1658</v>
+        <v>0.16595</v>
       </c>
       <c r="O27" t="n">
         <v>1820788</v>
@@ -2688,7 +2688,7 @@
         <v>0.14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.164057370611728</v>
+        <v>0.164026854434292</v>
       </c>
       <c r="H28" t="n">
         <v>0.9340000000000001</v>
@@ -2765,7 +2765,7 @@
         <v>0.14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.164057370611728</v>
+        <v>0.164026854434292</v>
       </c>
       <c r="H29" t="n">
         <v>0.9340000000000001</v>
@@ -2842,7 +2842,7 @@
         <v>0.0095</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0121504512135357</v>
+        <v>0.0121517597638602</v>
       </c>
       <c r="H30" t="n">
         <v>0.075</v>
@@ -2919,7 +2919,7 @@
         <v>0.0095</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0121504512135357</v>
+        <v>0.0121517597638602</v>
       </c>
       <c r="H31" t="n">
         <v>0.075</v>
@@ -3000,24 +3000,24 @@
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>4.60722853734934</v>
+        <v>4.5976051896744</v>
       </c>
       <c r="H32" t="n">
         <v>17</v>
       </c>
       <c r="I32" t="n">
-        <v>11.34527</v>
+        <v>9.42192</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>4.55008</v>
       </c>
       <c r="M32" t="n">
-        <v>7.26455</v>
+        <v>7.867</v>
       </c>
       <c r="N32" t="n">
-        <v>8.360440000000001</v>
+        <v>8.29312</v>
       </c>
       <c r="O32" t="n">
         <v>1820788</v>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00289</v>
+        <v>0.00304</v>
       </c>
       <c r="G33" t="n">
-        <v>0.003834329547073</v>
+        <v>0.0039415451506271</v>
       </c>
       <c r="H33" t="n">
         <v>0.011</v>
@@ -3092,7 +3092,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.00317</v>
+        <v>0.00333</v>
       </c>
       <c r="M33" t="n">
         <v>0.006</v>
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.00289</v>
+        <v>0.00304</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003834329547073</v>
+        <v>0.0039415451506271</v>
       </c>
       <c r="H34" t="n">
         <v>0.011</v>
@@ -3173,7 +3173,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.00317</v>
+        <v>0.00333</v>
       </c>
       <c r="M34" t="n">
         <v>0.006</v>
@@ -3243,7 +3243,7 @@
         <v>49.5</v>
       </c>
       <c r="G35" t="n">
-        <v>627.078687451733</v>
+        <v>627.081086318844</v>
       </c>
       <c r="H35" t="n">
         <v>17329</v>
@@ -3328,7 +3328,7 @@
         <v>49.5</v>
       </c>
       <c r="G36" t="n">
-        <v>627.078687451733</v>
+        <v>627.081086318844</v>
       </c>
       <c r="H36" t="n">
         <v>17329</v>
@@ -3413,7 +3413,7 @@
         <v>49.5</v>
       </c>
       <c r="G37" t="n">
-        <v>627.078687451733</v>
+        <v>627.081086318844</v>
       </c>
       <c r="H37" t="n">
         <v>17329</v>
@@ -3498,7 +3498,7 @@
         <v>49.5</v>
       </c>
       <c r="G38" t="n">
-        <v>627.078687451733</v>
+        <v>627.081086318844</v>
       </c>
       <c r="H38" t="n">
         <v>17329</v>
@@ -3583,7 +3583,7 @@
         <v>0.00114</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0028935865264708</v>
+        <v>0.0028958325686037</v>
       </c>
       <c r="H39" t="n">
         <v>0.03</v>
@@ -3594,7 +3594,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.00123</v>
+        <v>0.00122</v>
       </c>
       <c r="M39" t="n">
         <v>0.00382</v>
@@ -3664,7 +3664,7 @@
         <v>0.00114</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0028935865264708</v>
+        <v>0.0028958325686037</v>
       </c>
       <c r="H40" t="n">
         <v>0.03</v>
@@ -3675,7 +3675,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.00123</v>
+        <v>0.00122</v>
       </c>
       <c r="M40" t="n">
         <v>0.00382</v>
@@ -3745,7 +3745,7 @@
         <v>0.057</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0692128885782496</v>
+        <v>0.0691718299581386</v>
       </c>
       <c r="H41" t="n">
         <v>0.19</v>
@@ -3826,7 +3826,7 @@
         <v>0.057</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0692128885782496</v>
+        <v>0.0691718299581386</v>
       </c>
       <c r="H42" t="n">
         <v>0.19</v>
@@ -3900,10 +3900,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.061</v>
+        <v>0.06075</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0716638680357788</v>
+        <v>0.07171680426357351</v>
       </c>
       <c r="H43" t="n">
         <v>0.195</v>
@@ -3914,13 +3914,13 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.0305</v>
+        <v>0.0306</v>
       </c>
       <c r="M43" t="n">
-        <v>0.118</v>
+        <v>0.11815</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1615</v>
+        <v>0.16185</v>
       </c>
       <c r="O43" t="n">
         <v>1820788</v>
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.061</v>
+        <v>0.06075</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0716638680357788</v>
+        <v>0.07171680426357351</v>
       </c>
       <c r="H44" t="n">
         <v>0.195</v>
@@ -3991,13 +3991,13 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.0305</v>
+        <v>0.0306</v>
       </c>
       <c r="M44" t="n">
-        <v>0.118</v>
+        <v>0.11815</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1615</v>
+        <v>0.16185</v>
       </c>
       <c r="O44" t="n">
         <v>1820788</v>
@@ -4057,7 +4057,7 @@
         <v>0.13655</v>
       </c>
       <c r="G45" t="n">
-        <v>0.157885203307858</v>
+        <v>0.157863013209982</v>
       </c>
       <c r="H45" t="n">
         <v>0.9340000000000001</v>
@@ -4134,7 +4134,7 @@
         <v>0.13655</v>
       </c>
       <c r="G46" t="n">
-        <v>0.157885203307858</v>
+        <v>0.157863013209982</v>
       </c>
       <c r="H46" t="n">
         <v>0.9340000000000001</v>
@@ -4211,7 +4211,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0112834107637667</v>
+        <v>0.0112883679833422</v>
       </c>
       <c r="H47" t="n">
         <v>0.075</v>
@@ -4288,7 +4288,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0112834107637667</v>
+        <v>0.0112883679833422</v>
       </c>
       <c r="H48" t="n">
         <v>0.075</v>
@@ -4366,16 +4366,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>4.46534376307181</v>
+        <v>4.4053212416639</v>
       </c>
       <c r="H49" t="n">
-        <v>12.8569096111862</v>
+        <v>11.9184523529977</v>
       </c>
       <c r="I49" t="n">
-        <v>10.93709</v>
+        <v>8.99245</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -4383,10 +4383,10 @@
         <v>4.4</v>
       </c>
       <c r="M49" t="n">
-        <v>7.20112</v>
+        <v>7.629</v>
       </c>
       <c r="N49" t="n">
-        <v>8.32086</v>
+        <v>8.271789999999999</v>
       </c>
       <c r="O49" t="n">
         <v>1820788</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00306</v>
+        <v>0.00322</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0040212252252424</v>
+        <v>0.0041176831061122</v>
       </c>
       <c r="H50" t="n">
         <v>0.011</v>
@@ -4528,10 +4528,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00306</v>
+        <v>0.00322</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0040212252252424</v>
+        <v>0.0041176831061122</v>
       </c>
       <c r="H51" t="n">
         <v>0.011</v>
@@ -4949,10 +4949,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.00131</v>
+        <v>0.0013</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0035055242205714</v>
+        <v>0.0035065878845936</v>
       </c>
       <c r="H56" t="n">
         <v>0.03</v>
@@ -4963,7 +4963,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.00123</v>
+        <v>0.00122</v>
       </c>
       <c r="M56" t="n">
         <v>0.00472</v>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.00131</v>
+        <v>0.0013</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0035055242205714</v>
+        <v>0.0035065878845936</v>
       </c>
       <c r="H57" t="n">
         <v>0.03</v>
@@ -5044,7 +5044,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.00123</v>
+        <v>0.00122</v>
       </c>
       <c r="M57" t="n">
         <v>0.00472</v>
@@ -5114,7 +5114,7 @@
         <v>0.047</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0551025686341647</v>
+        <v>0.0550689005656737</v>
       </c>
       <c r="H58" t="n">
         <v>0.157</v>
@@ -5195,7 +5195,7 @@
         <v>0.047</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0551025686341647</v>
+        <v>0.0550689005656737</v>
       </c>
       <c r="H59" t="n">
         <v>0.157</v>
@@ -5272,24 +5272,24 @@
         <v>0.056</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0620472013691122</v>
+        <v>0.0620551375969068</v>
       </c>
       <c r="H60" t="n">
-        <v>0.163</v>
+        <v>0.1635</v>
       </c>
       <c r="I60" t="n">
-        <v>0.141</v>
+        <v>0.14125</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.03</v>
+        <v>0.02985</v>
       </c>
       <c r="M60" t="n">
         <v>0.1047</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1264</v>
+        <v>0.12655</v>
       </c>
       <c r="O60" t="n">
         <v>1820788</v>
@@ -5349,24 +5349,24 @@
         <v>0.056</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0620472013691122</v>
+        <v>0.0620551375969068</v>
       </c>
       <c r="H61" t="n">
-        <v>0.163</v>
+        <v>0.1635</v>
       </c>
       <c r="I61" t="n">
-        <v>0.141</v>
+        <v>0.14125</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.03</v>
+        <v>0.02985</v>
       </c>
       <c r="M61" t="n">
         <v>0.1047</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1264</v>
+        <v>0.12655</v>
       </c>
       <c r="O61" t="n">
         <v>1820788</v>
@@ -5426,7 +5426,7 @@
         <v>0.13</v>
       </c>
       <c r="G62" t="n">
-        <v>0.155603259754035</v>
+        <v>0.155591412507268</v>
       </c>
       <c r="H62" t="n">
         <v>0.9340000000000001</v>
@@ -5503,7 +5503,7 @@
         <v>0.13</v>
       </c>
       <c r="G63" t="n">
-        <v>0.155603259754035</v>
+        <v>0.155591412507268</v>
       </c>
       <c r="H63" t="n">
         <v>0.9340000000000001</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0114500774304333</v>
+        <v>0.0114550346500089</v>
       </c>
       <c r="H64" t="n">
         <v>0.075</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0114500774304333</v>
+        <v>0.0114550346500089</v>
       </c>
       <c r="H65" t="n">
         <v>0.075</v>
@@ -5735,16 +5735,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3.225</v>
+        <v>3.28672</v>
       </c>
       <c r="G66" t="n">
-        <v>4.10529658466</v>
+        <v>4.03608283748379</v>
       </c>
       <c r="H66" t="n">
-        <v>12.8569096111862</v>
+        <v>9.64910533061212</v>
       </c>
       <c r="I66" t="n">
-        <v>8.2981</v>
+        <v>8.25755</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -5752,10 +5752,10 @@
         <v>3.82</v>
       </c>
       <c r="M66" t="n">
-        <v>6.49575</v>
+        <v>6.4951</v>
       </c>
       <c r="N66" t="n">
-        <v>8.00198</v>
+        <v>8.016489999999999</v>
       </c>
       <c r="O66" t="n">
         <v>1820788</v>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.00328</v>
+        <v>0.00344</v>
       </c>
       <c r="G67" t="n">
-        <v>0.004483968474572</v>
+        <v>0.0045607314680477</v>
       </c>
       <c r="H67" t="n">
         <v>0.012</v>
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.00328</v>
+        <v>0.00344</v>
       </c>
       <c r="G68" t="n">
-        <v>0.004483968474572</v>
+        <v>0.0045607314680477</v>
       </c>
       <c r="H68" t="n">
         <v>0.012</v>
@@ -6321,7 +6321,7 @@
         <v>0.00213</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0042872629412139</v>
+        <v>0.0042877118484708</v>
       </c>
       <c r="H73" t="n">
         <v>0.03</v>
@@ -6402,7 +6402,7 @@
         <v>0.00213</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0042872629412139</v>
+        <v>0.0042877118484708</v>
       </c>
       <c r="H74" t="n">
         <v>0.03</v>
@@ -6483,7 +6483,7 @@
         <v>0.03975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0522271405284706</v>
+        <v>0.0521990838047281</v>
       </c>
       <c r="H75" t="n">
         <v>0.157</v>
@@ -6494,7 +6494,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.01014</v>
+        <v>0.00983</v>
       </c>
       <c r="M75" t="n">
         <v>0.09619999999999999</v>
@@ -6564,7 +6564,7 @@
         <v>0.03975</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0522271405284706</v>
+        <v>0.0521990838047281</v>
       </c>
       <c r="H76" t="n">
         <v>0.157</v>
@@ -6575,7 +6575,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.01014</v>
+        <v>0.00983</v>
       </c>
       <c r="M76" t="n">
         <v>0.09619999999999999</v>
@@ -6641,13 +6641,13 @@
         <v>0.0525</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0617833333333333</v>
+        <v>0.0617966666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0.163</v>
+        <v>0.1635</v>
       </c>
       <c r="I77" t="n">
-        <v>0.15</v>
+        <v>0.15035</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -6655,10 +6655,10 @@
         <v>0.022</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1122</v>
+        <v>0.11205</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1341</v>
+        <v>0.13416</v>
       </c>
       <c r="O77" t="n">
         <v>1820788</v>
@@ -6718,13 +6718,13 @@
         <v>0.0525</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0617833333333333</v>
+        <v>0.0617966666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0.163</v>
+        <v>0.1635</v>
       </c>
       <c r="I78" t="n">
-        <v>0.15</v>
+        <v>0.15035</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -6732,10 +6732,10 @@
         <v>0.022</v>
       </c>
       <c r="M78" t="n">
-        <v>0.1122</v>
+        <v>0.11205</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1341</v>
+        <v>0.13416</v>
       </c>
       <c r="O78" t="n">
         <v>1820788</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.00818</v>
+        <v>0.00821</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009753077430433301</v>
+        <v>0.009758034650008801</v>
       </c>
       <c r="H81" t="n">
         <v>0.029</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.00818</v>
+        <v>0.00821</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009753077430433301</v>
+        <v>0.009758034650008801</v>
       </c>
       <c r="H82" t="n">
         <v>0.029</v>
@@ -7107,13 +7107,13 @@
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>3.52507910896972</v>
+        <v>3.41449516964537</v>
       </c>
       <c r="H83" t="n">
-        <v>12.5219858090267</v>
+        <v>8.983228230618449</v>
       </c>
       <c r="I83" t="n">
-        <v>8.084099999999999</v>
+        <v>8.011990000000001</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7124,7 +7124,7 @@
         <v>5.0445</v>
       </c>
       <c r="N83" t="n">
-        <v>7.34395</v>
+        <v>6.89</v>
       </c>
       <c r="O83" t="n">
         <v>1820788</v>
@@ -7188,7 +7188,7 @@
         <v>0.004</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0050975788121448</v>
+        <v>0.005159654990683</v>
       </c>
       <c r="H84" t="n">
         <v>0.019</v>
@@ -7269,7 +7269,7 @@
         <v>0.004</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0050975788121448</v>
+        <v>0.005159654990683</v>
       </c>
       <c r="H85" t="n">
         <v>0.019</v>
@@ -7690,7 +7690,7 @@
         <v>0.00215</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0041800371425108</v>
+        <v>0.0041832114225679</v>
       </c>
       <c r="H90" t="n">
         <v>0.0291373512515363</v>
@@ -7704,7 +7704,7 @@
         <v>0.00214</v>
       </c>
       <c r="M90" t="n">
-        <v>0.00795</v>
+        <v>0.00797</v>
       </c>
       <c r="N90" t="n">
         <v>0.01281</v>
@@ -7771,7 +7771,7 @@
         <v>0.00215</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0041800371425108</v>
+        <v>0.0041832114225679</v>
       </c>
       <c r="H91" t="n">
         <v>0.0291373512515363</v>
@@ -7785,7 +7785,7 @@
         <v>0.00214</v>
       </c>
       <c r="M91" t="n">
-        <v>0.00795</v>
+        <v>0.00797</v>
       </c>
       <c r="N91" t="n">
         <v>0.01281</v>
@@ -7852,7 +7852,7 @@
         <v>0.03975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0495163285290072</v>
+        <v>0.0495024867962786</v>
       </c>
       <c r="H92" t="n">
         <v>0.178</v>
@@ -7933,7 +7933,7 @@
         <v>0.03975</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0495163285290072</v>
+        <v>0.0495024867962786</v>
       </c>
       <c r="H93" t="n">
         <v>0.178</v>
@@ -8007,16 +8007,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.054</v>
+        <v>0.05395</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0593859218645647</v>
+        <v>0.0593474345141599</v>
       </c>
       <c r="H94" t="n">
         <v>0.185</v>
       </c>
       <c r="I94" t="n">
-        <v>0.144</v>
+        <v>0.1441</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -8024,10 +8024,10 @@
         <v>0.022</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0983</v>
+        <v>0.09851</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1305</v>
+        <v>0.13064</v>
       </c>
       <c r="O94" t="n">
         <v>1820788</v>
@@ -8084,16 +8084,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.054</v>
+        <v>0.05395</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0593859218645647</v>
+        <v>0.0593474345141599</v>
       </c>
       <c r="H95" t="n">
         <v>0.185</v>
       </c>
       <c r="I95" t="n">
-        <v>0.144</v>
+        <v>0.1441</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -8101,10 +8101,10 @@
         <v>0.022</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0983</v>
+        <v>0.09851</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1305</v>
+        <v>0.13064</v>
       </c>
       <c r="O95" t="n">
         <v>1820788</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.00762</v>
+        <v>0.00765</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0102197440971</v>
+        <v>0.0102247013166756</v>
       </c>
       <c r="H98" t="n">
         <v>0.042</v>
@@ -8329,7 +8329,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00659</v>
+        <v>0.00661</v>
       </c>
       <c r="M98" t="n">
         <v>0.014</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.00762</v>
+        <v>0.00765</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0102197440971</v>
+        <v>0.0102247013166756</v>
       </c>
       <c r="H99" t="n">
         <v>0.042</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00659</v>
+        <v>0.00661</v>
       </c>
       <c r="M99" t="n">
         <v>0.014</v>
@@ -8476,13 +8476,13 @@
         <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>3.40806125557377</v>
+        <v>3.36176307663652</v>
       </c>
       <c r="H100" t="n">
-        <v>12.5219858090267</v>
+        <v>8.983228230618449</v>
       </c>
       <c r="I100" t="n">
-        <v>8.004949999999999</v>
+        <v>8.00665</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -8490,10 +8490,10 @@
         <v>3</v>
       </c>
       <c r="M100" t="n">
-        <v>5.01923</v>
+        <v>5.0285</v>
       </c>
       <c r="N100" t="n">
-        <v>5.848</v>
+        <v>6.18999</v>
       </c>
       <c r="O100" t="n">
         <v>1820788</v>
@@ -8557,7 +8557,7 @@
         <v>0.004</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0053113183366966</v>
+        <v>0.0053721373655611</v>
       </c>
       <c r="H101" t="n">
         <v>0.019</v>
@@ -8638,7 +8638,7 @@
         <v>0.004</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0053113183366966</v>
+        <v>0.0053721373655611</v>
       </c>
       <c r="H102" t="n">
         <v>0.019</v>
@@ -9056,10 +9056,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00172</v>
+        <v>0.00173</v>
       </c>
       <c r="G107" t="n">
-        <v>0.004042912238528</v>
+        <v>0.0040472695495668</v>
       </c>
       <c r="H107" t="n">
         <v>0.0291373512515363</v>
@@ -9070,10 +9070,10 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00213</v>
+        <v>0.00214</v>
       </c>
       <c r="M107" t="n">
-        <v>0.00738</v>
+        <v>0.00742</v>
       </c>
       <c r="N107" t="n">
         <v>0.01257</v>
@@ -9137,10 +9137,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.00172</v>
+        <v>0.00173</v>
       </c>
       <c r="G108" t="n">
-        <v>0.004042912238528</v>
+        <v>0.0040472695495668</v>
       </c>
       <c r="H108" t="n">
         <v>0.0291373512515363</v>
@@ -9151,10 +9151,10 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00213</v>
+        <v>0.00214</v>
       </c>
       <c r="M108" t="n">
-        <v>0.00738</v>
+        <v>0.00742</v>
       </c>
       <c r="N108" t="n">
         <v>0.01257</v>
@@ -9221,7 +9221,7 @@
         <v>0.0383</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0477856190912226</v>
+        <v>0.0477581385454203</v>
       </c>
       <c r="H109" t="n">
         <v>0.178</v>
@@ -9232,7 +9232,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.00558</v>
+        <v>0.00517</v>
       </c>
       <c r="M109" t="n">
         <v>0.09429999999999999</v>
@@ -9302,7 +9302,7 @@
         <v>0.0383</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0477856190912226</v>
+        <v>0.0477581385454203</v>
       </c>
       <c r="H110" t="n">
         <v>0.178</v>
@@ -9313,7 +9313,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00558</v>
+        <v>0.00517</v>
       </c>
       <c r="M110" t="n">
         <v>0.09429999999999999</v>
@@ -9379,24 +9379,24 @@
         <v>0.0475</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0573219196628052</v>
+        <v>0.0572993044049049</v>
       </c>
       <c r="H111" t="n">
         <v>0.185</v>
       </c>
       <c r="I111" t="n">
-        <v>0.144</v>
+        <v>0.1441</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.0136</v>
+        <v>0.01379</v>
       </c>
       <c r="M111" t="n">
         <v>0.1044</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1341</v>
+        <v>0.13416</v>
       </c>
       <c r="O111" t="n">
         <v>1820788</v>
@@ -9456,24 +9456,24 @@
         <v>0.0475</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0573219196628052</v>
+        <v>0.0572993044049049</v>
       </c>
       <c r="H112" t="n">
         <v>0.185</v>
       </c>
       <c r="I112" t="n">
-        <v>0.144</v>
+        <v>0.1441</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.0136</v>
+        <v>0.01379</v>
       </c>
       <c r="M112" t="n">
         <v>0.1044</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1341</v>
+        <v>0.13416</v>
       </c>
       <c r="O112" t="n">
         <v>1820788</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.00762</v>
+        <v>0.00765</v>
       </c>
       <c r="G115" t="n">
-        <v>0.009332959550230901</v>
+        <v>0.009336608219482</v>
       </c>
       <c r="H115" t="n">
         <v>0.042</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.00762</v>
+        <v>0.00765</v>
       </c>
       <c r="G116" t="n">
-        <v>0.009332959550230901</v>
+        <v>0.009336608219482</v>
       </c>
       <c r="H116" t="n">
         <v>0.042</v>
@@ -9922,13 +9922,13 @@
         <v>2.8</v>
       </c>
       <c r="G118" t="n">
-        <v>3.08321128757625</v>
+        <v>3.00864313610943</v>
       </c>
       <c r="H118" t="n">
-        <v>12.5219858090267</v>
+        <v>8.983228230618449</v>
       </c>
       <c r="I118" t="n">
-        <v>6.39984</v>
+        <v>6.40495</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -10003,7 +10003,7 @@
         <v>0.005</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0056625445064148</v>
+        <v>0.0057049223838006</v>
       </c>
       <c r="H119" t="n">
         <v>0.019</v>
@@ -10084,7 +10084,7 @@
         <v>0.005</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0056625445064148</v>
+        <v>0.0057049223838006</v>
       </c>
       <c r="H120" t="n">
         <v>0.019</v>
@@ -10582,7 +10582,7 @@
         <v>0.00206</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0036595840136565</v>
+        <v>0.0036630970680211</v>
       </c>
       <c r="H126" t="n">
         <v>0.0291373512515363</v>
@@ -10663,7 +10663,7 @@
         <v>0.00206</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0036595840136565</v>
+        <v>0.0036630970680211</v>
       </c>
       <c r="H127" t="n">
         <v>0.0291373512515363</v>
@@ -10744,7 +10744,7 @@
         <v>0.0414</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0523031267037563</v>
+        <v>0.052279180385785</v>
       </c>
       <c r="H128" t="n">
         <v>0.178</v>
@@ -10755,7 +10755,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00558</v>
+        <v>0.00517</v>
       </c>
       <c r="M128" t="n">
         <v>0.10322</v>
@@ -10825,7 +10825,7 @@
         <v>0.0414</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0523031267037563</v>
+        <v>0.052279180385785</v>
       </c>
       <c r="H129" t="n">
         <v>0.178</v>
@@ -10836,7 +10836,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00558</v>
+        <v>0.00517</v>
       </c>
       <c r="M129" t="n">
         <v>0.10322</v>
@@ -10979,24 +10979,24 @@
         <v>0.055</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0614885863294719</v>
+        <v>0.0614626377382382</v>
       </c>
       <c r="H131" t="n">
         <v>0.185</v>
       </c>
       <c r="I131" t="n">
-        <v>0.149</v>
+        <v>0.1491</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.0136</v>
+        <v>0.01379</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1236</v>
+        <v>0.12325</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1341</v>
+        <v>0.13416</v>
       </c>
       <c r="O131" t="n">
         <v>1820788</v>
@@ -11056,24 +11056,24 @@
         <v>0.055</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0614885863294719</v>
+        <v>0.0614626377382382</v>
       </c>
       <c r="H132" t="n">
         <v>0.185</v>
       </c>
       <c r="I132" t="n">
-        <v>0.149</v>
+        <v>0.1491</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.0136</v>
+        <v>0.01379</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1236</v>
+        <v>0.12325</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1341</v>
+        <v>0.13416</v>
       </c>
       <c r="O132" t="n">
         <v>1820788</v>
@@ -11287,7 +11287,7 @@
         <v>0.008</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0103679727859932</v>
+        <v>0.0103684004994072</v>
       </c>
       <c r="H135" t="n">
         <v>0.066</v>
@@ -11364,7 +11364,7 @@
         <v>0.008</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0103679727859932</v>
+        <v>0.0103684004994072</v>
       </c>
       <c r="H136" t="n">
         <v>0.066</v>
@@ -11684,7 +11684,7 @@
         <v>0.005</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0055366185533928</v>
+        <v>0.0055971737645267</v>
       </c>
       <c r="H140" t="n">
         <v>0.019</v>
@@ -11765,7 +11765,7 @@
         <v>0.005</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0055366185533928</v>
+        <v>0.0055971737645267</v>
       </c>
       <c r="H141" t="n">
         <v>0.019</v>
@@ -12260,13 +12260,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.00235</v>
+        <v>0.00234</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0041007253777063</v>
+        <v>0.0040978243677182</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I147" t="n">
         <v>0.01393</v>
@@ -12277,7 +12277,7 @@
         <v>0.00263</v>
       </c>
       <c r="M147" t="n">
-        <v>0.00633</v>
+        <v>0.00637</v>
       </c>
       <c r="N147" t="n">
         <v>0.01237</v>
@@ -12341,13 +12341,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.00235</v>
+        <v>0.00234</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0041007253777063</v>
+        <v>0.0040978243677182</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I148" t="n">
         <v>0.01393</v>
@@ -12358,7 +12358,7 @@
         <v>0.00263</v>
       </c>
       <c r="M148" t="n">
-        <v>0.00633</v>
+        <v>0.00637</v>
       </c>
       <c r="N148" t="n">
         <v>0.01237</v>
@@ -12425,7 +12425,7 @@
         <v>0.049</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0574131267037563</v>
+        <v>0.057389180385785</v>
       </c>
       <c r="H149" t="n">
         <v>0.178</v>
@@ -12506,7 +12506,7 @@
         <v>0.049</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0574131267037563</v>
+        <v>0.057389180385785</v>
       </c>
       <c r="H150" t="n">
         <v>0.178</v>
@@ -12660,13 +12660,13 @@
         <v>0.055</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0665885863294719</v>
+        <v>0.06658263773823821</v>
       </c>
       <c r="H152" t="n">
         <v>0.185</v>
       </c>
       <c r="I152" t="n">
-        <v>0.149</v>
+        <v>0.1491</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -12737,13 +12737,13 @@
         <v>0.055</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0665885863294719</v>
+        <v>0.06658263773823821</v>
       </c>
       <c r="H153" t="n">
         <v>0.185</v>
       </c>
       <c r="I153" t="n">
-        <v>0.149</v>
+        <v>0.1491</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -12968,7 +12968,7 @@
         <v>0.008</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0115013061193265</v>
+        <v>0.0115017338327406</v>
       </c>
       <c r="H156" t="n">
         <v>0.066</v>
@@ -13045,7 +13045,7 @@
         <v>0.008</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0115013061193265</v>
+        <v>0.0115017338327406</v>
       </c>
       <c r="H157" t="n">
         <v>0.066</v>
@@ -13365,7 +13365,7 @@
         <v>0.005</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0052751130960479</v>
+        <v>0.0053491392490841</v>
       </c>
       <c r="H161" t="n">
         <v>0.019</v>
@@ -13376,7 +13376,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00426</v>
+        <v>0.00444</v>
       </c>
       <c r="M161" t="n">
         <v>0.00647</v>
@@ -13446,7 +13446,7 @@
         <v>0.005</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0052751130960479</v>
+        <v>0.0053491392490841</v>
       </c>
       <c r="H162" t="n">
         <v>0.019</v>
@@ -13457,7 +13457,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00426</v>
+        <v>0.00444</v>
       </c>
       <c r="M162" t="n">
         <v>0.00647</v>
@@ -13944,10 +13944,10 @@
         <v>0.00258</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0040289617432548</v>
+        <v>0.0040125721594761</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I168" t="n">
         <v>0.01305</v>
@@ -13955,13 +13955,13 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00286</v>
+        <v>0.00285</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0059</v>
+        <v>0.00581</v>
       </c>
       <c r="N168" t="n">
-        <v>0.00961</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="O168" t="n">
         <v>1820788</v>
@@ -14025,10 +14025,10 @@
         <v>0.00258</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0040289617432548</v>
+        <v>0.0040125721594761</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I169" t="n">
         <v>0.01305</v>
@@ -14036,13 +14036,13 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.00286</v>
+        <v>0.00285</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0059</v>
+        <v>0.00581</v>
       </c>
       <c r="N169" t="n">
-        <v>0.00961</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="O169" t="n">
         <v>1820788</v>
@@ -14106,7 +14106,7 @@
         <v>0.051</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0623608068173793</v>
+        <v>0.0623364546296118</v>
       </c>
       <c r="H170" t="n">
         <v>0.178</v>
@@ -14187,7 +14187,7 @@
         <v>0.051</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0623608068173793</v>
+        <v>0.0623364546296118</v>
       </c>
       <c r="H171" t="n">
         <v>0.178</v>
@@ -14338,10 +14338,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.059</v>
+        <v>0.0587</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07080195219946291</v>
+        <v>0.07079929261515749</v>
       </c>
       <c r="H173" t="n">
         <v>0.185</v>
@@ -14415,10 +14415,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.059</v>
+        <v>0.0587</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07080195219946291</v>
+        <v>0.07079929261515749</v>
       </c>
       <c r="H174" t="n">
         <v>0.185</v>
@@ -14649,7 +14649,7 @@
         <v>0.008</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0114996121589855</v>
+        <v>0.011500286384536</v>
       </c>
       <c r="H177" t="n">
         <v>0.066</v>
@@ -14726,7 +14726,7 @@
         <v>0.008</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0114996121589855</v>
+        <v>0.011500286384536</v>
       </c>
       <c r="H178" t="n">
         <v>0.066</v>
@@ -15043,10 +15043,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.00422</v>
+        <v>0.0044</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0045676010759211</v>
+        <v>0.0046342627996216</v>
       </c>
       <c r="H182" t="n">
         <v>0.01</v>
@@ -15057,7 +15057,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.0041</v>
+        <v>0.00428</v>
       </c>
       <c r="M182" t="n">
         <v>0.006</v>
@@ -15124,10 +15124,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00422</v>
+        <v>0.0044</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0045676010759211</v>
+        <v>0.0046342627996216</v>
       </c>
       <c r="H183" t="n">
         <v>0.01</v>
@@ -15138,7 +15138,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.0041</v>
+        <v>0.00428</v>
       </c>
       <c r="M183" t="n">
         <v>0.006</v>
@@ -15622,13 +15622,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.00275</v>
+        <v>0.00274</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0038339240279889</v>
+        <v>0.0038144531775611</v>
       </c>
       <c r="H189" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I189" t="n">
         <v>0.009509999999999999</v>
@@ -15636,13 +15636,13 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.00287</v>
+        <v>0.00286</v>
       </c>
       <c r="M189" t="n">
-        <v>0.00512</v>
+        <v>0.00506</v>
       </c>
       <c r="N189" t="n">
-        <v>0.008019999999999999</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="O189" t="n">
         <v>1820788</v>
@@ -15703,13 +15703,13 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.00275</v>
+        <v>0.00274</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0038339240279889</v>
+        <v>0.0038144531775611</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I190" t="n">
         <v>0.009509999999999999</v>
@@ -15717,13 +15717,13 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.00287</v>
+        <v>0.00286</v>
       </c>
       <c r="M190" t="n">
-        <v>0.00512</v>
+        <v>0.00506</v>
       </c>
       <c r="N190" t="n">
-        <v>0.008019999999999999</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="O190" t="n">
         <v>1820788</v>
@@ -15787,7 +15787,7 @@
         <v>0.0505</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06251995575401589</v>
+        <v>0.0625058466370432</v>
       </c>
       <c r="H191" t="n">
         <v>0.156</v>
@@ -15868,7 +15868,7 @@
         <v>0.0505</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06251995575401589</v>
+        <v>0.0625058466370432</v>
       </c>
       <c r="H192" t="n">
         <v>0.156</v>
@@ -16022,7 +16022,7 @@
         <v>0.0565</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0705027563430074</v>
+        <v>0.07049331368008099</v>
       </c>
       <c r="H194" t="n">
         <v>0.165</v>
@@ -16039,7 +16039,7 @@
         <v>0.125</v>
       </c>
       <c r="N194" t="n">
-        <v>0.13444</v>
+        <v>0.13437</v>
       </c>
       <c r="O194" t="n">
         <v>1820788</v>
@@ -16099,7 +16099,7 @@
         <v>0.0565</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0705027563430074</v>
+        <v>0.07049331368008099</v>
       </c>
       <c r="H195" t="n">
         <v>0.165</v>
@@ -16116,7 +16116,7 @@
         <v>0.125</v>
       </c>
       <c r="N195" t="n">
-        <v>0.13444</v>
+        <v>0.13437</v>
       </c>
       <c r="O195" t="n">
         <v>1820788</v>
@@ -16330,7 +16330,7 @@
         <v>0.007</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0126978813341404</v>
+        <v>0.0126985671842694</v>
       </c>
       <c r="H198" t="n">
         <v>0.106</v>
@@ -16407,7 +16407,7 @@
         <v>0.007</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0126978813341404</v>
+        <v>0.0126985671842694</v>
       </c>
       <c r="H199" t="n">
         <v>0.106</v>
@@ -16724,10 +16724,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.00414</v>
+        <v>0.00432</v>
       </c>
       <c r="G203" t="n">
-        <v>0.004303243836724</v>
+        <v>0.004349386312834</v>
       </c>
       <c r="H203" t="n">
         <v>0.008999999999999999</v>
@@ -16738,7 +16738,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>0.0041</v>
+        <v>0.00428</v>
       </c>
       <c r="M203" t="n">
         <v>0.00564</v>
@@ -16805,10 +16805,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.00414</v>
+        <v>0.00432</v>
       </c>
       <c r="G204" t="n">
-        <v>0.004303243836724</v>
+        <v>0.004349386312834</v>
       </c>
       <c r="H204" t="n">
         <v>0.008999999999999999</v>
@@ -16819,7 +16819,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.0041</v>
+        <v>0.00428</v>
       </c>
       <c r="M204" t="n">
         <v>0.00564</v>
@@ -16889,10 +16889,10 @@
         <v>130</v>
       </c>
       <c r="G205" t="n">
-        <v>484.607570232822</v>
+        <v>558.870144232736</v>
       </c>
       <c r="H205" t="n">
-        <v>5200</v>
+        <v>9101.46836549868</v>
       </c>
       <c r="I205" t="n">
         <v>2440</v>
@@ -16974,10 +16974,10 @@
         <v>130</v>
       </c>
       <c r="G206" t="n">
-        <v>484.607570232822</v>
+        <v>558.870144232736</v>
       </c>
       <c r="H206" t="n">
-        <v>5200</v>
+        <v>9101.46836549868</v>
       </c>
       <c r="I206" t="n">
         <v>2440</v>
@@ -17059,10 +17059,10 @@
         <v>130</v>
       </c>
       <c r="G207" t="n">
-        <v>484.607570232822</v>
+        <v>558.870144232736</v>
       </c>
       <c r="H207" t="n">
-        <v>5200</v>
+        <v>9101.46836549868</v>
       </c>
       <c r="I207" t="n">
         <v>2440</v>
@@ -17144,10 +17144,10 @@
         <v>130</v>
       </c>
       <c r="G208" t="n">
-        <v>484.607570232822</v>
+        <v>558.870144232736</v>
       </c>
       <c r="H208" t="n">
-        <v>5200</v>
+        <v>9101.46836549868</v>
       </c>
       <c r="I208" t="n">
         <v>2440</v>
@@ -17306,10 +17306,10 @@
         <v>0.00284</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0038388642866983</v>
+        <v>0.0038177338382862</v>
       </c>
       <c r="H210" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I210" t="n">
         <v>0.009679999999999999</v>
@@ -17317,10 +17317,10 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>0.0031</v>
+        <v>0.00309</v>
       </c>
       <c r="M210" t="n">
-        <v>0.00512</v>
+        <v>0.00506</v>
       </c>
       <c r="N210" t="n">
         <v>0.00882</v>
@@ -17387,10 +17387,10 @@
         <v>0.00284</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0038388642866983</v>
+        <v>0.0038177338382862</v>
       </c>
       <c r="H211" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I211" t="n">
         <v>0.009679999999999999</v>
@@ -17398,10 +17398,10 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>0.0031</v>
+        <v>0.00309</v>
       </c>
       <c r="M211" t="n">
-        <v>0.00512</v>
+        <v>0.00506</v>
       </c>
       <c r="N211" t="n">
         <v>0.00882</v>
@@ -17703,13 +17703,13 @@
         <v>0.0565</v>
       </c>
       <c r="G215" t="n">
-        <v>0.068</v>
+        <v>0.0679741379310345</v>
       </c>
       <c r="H215" t="n">
         <v>0.165</v>
       </c>
       <c r="I215" t="n">
-        <v>0.1334</v>
+        <v>0.1332</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -17780,13 +17780,13 @@
         <v>0.0565</v>
       </c>
       <c r="G216" t="n">
-        <v>0.068</v>
+        <v>0.0679741379310345</v>
       </c>
       <c r="H216" t="n">
         <v>0.165</v>
       </c>
       <c r="I216" t="n">
-        <v>0.1334</v>
+        <v>0.1332</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -18011,7 +18011,7 @@
         <v>0.008</v>
       </c>
       <c r="G219" t="n">
-        <v>0.01518063995483</v>
+        <v>0.015181325804959</v>
       </c>
       <c r="H219" t="n">
         <v>0.137</v>
@@ -18088,7 +18088,7 @@
         <v>0.008</v>
       </c>
       <c r="G220" t="n">
-        <v>0.01518063995483</v>
+        <v>0.015181325804959</v>
       </c>
       <c r="H220" t="n">
         <v>0.137</v>
@@ -18405,10 +18405,10 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0.00418</v>
+        <v>0.00436</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0046236818735221</v>
+        <v>0.0046608588070666</v>
       </c>
       <c r="H224" t="n">
         <v>0.01</v>
@@ -18419,7 +18419,7 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>0.0041</v>
+        <v>0.00428</v>
       </c>
       <c r="M224" t="n">
         <v>0.006</v>
@@ -18486,10 +18486,10 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0.00418</v>
+        <v>0.00436</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0046236818735221</v>
+        <v>0.0046608588070666</v>
       </c>
       <c r="H225" t="n">
         <v>0.01</v>
@@ -18500,7 +18500,7 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>0.0041</v>
+        <v>0.00428</v>
       </c>
       <c r="M225" t="n">
         <v>0.006</v>
@@ -18570,13 +18570,13 @@
         <v>145</v>
       </c>
       <c r="G226" t="n">
-        <v>738.779984025925</v>
+        <v>813.042558025839</v>
       </c>
       <c r="H226" t="n">
         <v>15000</v>
       </c>
       <c r="I226" t="n">
-        <v>3916.54344</v>
+        <v>4160</v>
       </c>
       <c r="J226" t="n">
         <v>22.4137931034483</v>
@@ -18655,13 +18655,13 @@
         <v>145</v>
       </c>
       <c r="G227" t="n">
-        <v>738.779984025925</v>
+        <v>813.042558025839</v>
       </c>
       <c r="H227" t="n">
         <v>15000</v>
       </c>
       <c r="I227" t="n">
-        <v>3916.54344</v>
+        <v>4160</v>
       </c>
       <c r="J227" t="n">
         <v>22.4137931034483</v>
@@ -18740,13 +18740,13 @@
         <v>145</v>
       </c>
       <c r="G228" t="n">
-        <v>738.779984025925</v>
+        <v>813.042558025839</v>
       </c>
       <c r="H228" t="n">
         <v>15000</v>
       </c>
       <c r="I228" t="n">
-        <v>3916.54344</v>
+        <v>4160</v>
       </c>
       <c r="J228" t="n">
         <v>22.4137931034483</v>
@@ -18825,13 +18825,13 @@
         <v>145</v>
       </c>
       <c r="G229" t="n">
-        <v>738.779984025925</v>
+        <v>813.042558025839</v>
       </c>
       <c r="H229" t="n">
         <v>15000</v>
       </c>
       <c r="I229" t="n">
-        <v>3916.54344</v>
+        <v>4160</v>
       </c>
       <c r="J229" t="n">
         <v>22.4137931034483</v>
@@ -18984,13 +18984,13 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0.00287</v>
+        <v>0.00286</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0038108587726169</v>
+        <v>0.0037895379472434</v>
       </c>
       <c r="H231" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I231" t="n">
         <v>0.00944</v>
@@ -18998,10 +18998,10 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
-        <v>0.00324</v>
+        <v>0.00323</v>
       </c>
       <c r="M231" t="n">
-        <v>0.00621</v>
+        <v>0.00615</v>
       </c>
       <c r="N231" t="n">
         <v>0.00873</v>
@@ -19065,13 +19065,13 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0.00287</v>
+        <v>0.00286</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0038108587726169</v>
+        <v>0.0037895379472434</v>
       </c>
       <c r="H232" t="n">
-        <v>0.0302406355656181</v>
+        <v>0.0299955871573823</v>
       </c>
       <c r="I232" t="n">
         <v>0.00944</v>
@@ -19079,10 +19079,10 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
-        <v>0.00324</v>
+        <v>0.00323</v>
       </c>
       <c r="M232" t="n">
-        <v>0.00621</v>
+        <v>0.00615</v>
       </c>
       <c r="N232" t="n">
         <v>0.00873</v>
@@ -19384,13 +19384,13 @@
         <v>0.0495</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0665862068965517</v>
+        <v>0.0665689655172414</v>
       </c>
       <c r="H236" t="n">
         <v>0.184</v>
       </c>
       <c r="I236" t="n">
-        <v>0.138</v>
+        <v>0.1383</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -19401,7 +19401,7 @@
         <v>0.11428</v>
       </c>
       <c r="N236" t="n">
-        <v>0.13272</v>
+        <v>0.13265</v>
       </c>
       <c r="O236" t="n">
         <v>1820788</v>
@@ -19461,13 +19461,13 @@
         <v>0.0495</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0665862068965517</v>
+        <v>0.0665689655172414</v>
       </c>
       <c r="H237" t="n">
         <v>0.184</v>
       </c>
       <c r="I237" t="n">
-        <v>0.138</v>
+        <v>0.1383</v>
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
@@ -19478,7 +19478,7 @@
         <v>0.11428</v>
       </c>
       <c r="N237" t="n">
-        <v>0.13272</v>
+        <v>0.13265</v>
       </c>
       <c r="O237" t="n">
         <v>1820788</v>
@@ -19692,7 +19692,7 @@
         <v>0.008</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0195241163831129</v>
+        <v>0.0195243597710895</v>
       </c>
       <c r="H240" t="n">
         <v>0.245</v>
@@ -19769,7 +19769,7 @@
         <v>0.008</v>
       </c>
       <c r="G241" t="n">
-        <v>0.0195241163831129</v>
+        <v>0.0195243597710895</v>
       </c>
       <c r="H241" t="n">
         <v>0.245</v>
@@ -19820,6 +19820,1687 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.5224</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="G243" t="n">
+        <v>9.73147727272727</v>
+      </c>
+      <c r="H243" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="I243" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M243" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="N243" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2.23217391304348</v>
+      </c>
+      <c r="H244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M244" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0045132549969716</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.007860000000000001</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.0045132549969716</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.007860000000000001</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>145</v>
+      </c>
+      <c r="G247" t="n">
+        <v>794.663247681012</v>
+      </c>
+      <c r="H247" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4159.4</v>
+      </c>
+      <c r="J247" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K247" t="n">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="L247" t="n">
+        <v>177</v>
+      </c>
+      <c r="M247" t="n">
+        <v>630</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2102</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>145</v>
+      </c>
+      <c r="G248" t="n">
+        <v>794.663247681012</v>
+      </c>
+      <c r="H248" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4159.4</v>
+      </c>
+      <c r="J248" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K248" t="n">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="L248" t="n">
+        <v>177</v>
+      </c>
+      <c r="M248" t="n">
+        <v>630</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2102</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>145</v>
+      </c>
+      <c r="G249" t="n">
+        <v>794.663247681012</v>
+      </c>
+      <c r="H249" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4159.4</v>
+      </c>
+      <c r="J249" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K249" t="n">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="L249" t="n">
+        <v>177</v>
+      </c>
+      <c r="M249" t="n">
+        <v>630</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2102</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>145</v>
+      </c>
+      <c r="G250" t="n">
+        <v>794.663247681012</v>
+      </c>
+      <c r="H250" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4159.4</v>
+      </c>
+      <c r="J250" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K250" t="n">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="L250" t="n">
+        <v>177</v>
+      </c>
+      <c r="M250" t="n">
+        <v>630</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2102</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>120</v>
+      </c>
+      <c r="G251" t="n">
+        <v>120.924</v>
+      </c>
+      <c r="H251" t="n">
+        <v>126.36</v>
+      </c>
+      <c r="I251" t="n">
+        <v>126.36</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>120</v>
+      </c>
+      <c r="M251" t="n">
+        <v>124.834</v>
+      </c>
+      <c r="N251" t="n">
+        <v>126.36</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.00244</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.0030963886272105</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.009547766511450499</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.00873</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0.00309</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.00544</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.00244</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.0030963886272105</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.009547766511450499</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.00873</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>0.00309</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.00544</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.0537931034482759</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.09964000000000001</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.12658</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.0537931034482759</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.09964000000000001</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.12658</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G256" t="n">
+        <v>5.8854</v>
+      </c>
+      <c r="H256" t="n">
+        <v>6.879</v>
+      </c>
+      <c r="I256" t="n">
+        <v>6.879</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="M256" t="n">
+        <v>6.67285</v>
+      </c>
+      <c r="N256" t="n">
+        <v>6.879</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.0603879310344828</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.10628</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.12973</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.0603879310344828</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.10628</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.12973</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.162692307692308</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.2066</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.3134</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.162692307692308</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.2066</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.3134</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.0189553942538481</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.01964</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.04104</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.0189553942538481</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.01964</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.04104</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
+++ b/state_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>3.75489</v>
       </c>
       <c r="G2" t="n">
-        <v>4.57663930678155</v>
+        <v>4.54026555479611</v>
       </c>
       <c r="H2" t="n">
         <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>9.546150000000001</v>
+        <v>10.01198</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>7.867</v>
       </c>
       <c r="N2" t="n">
-        <v>8.95866</v>
+        <v>8.94993</v>
       </c>
       <c r="O2" t="n">
         <v>1820788</v>
@@ -1631,24 +1631,24 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.66365427583445</v>
+        <v>4.56741769839607</v>
       </c>
       <c r="H15" t="n">
         <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>9.546150000000001</v>
+        <v>10.01198</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>7.867</v>
       </c>
       <c r="N15" t="n">
-        <v>8.95866</v>
+        <v>8.94993</v>
       </c>
       <c r="O15" t="n">
         <v>1820788</v>
@@ -3000,24 +3000,24 @@
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>4.5976051896744</v>
+        <v>4.52453472567931</v>
       </c>
       <c r="H32" t="n">
         <v>17</v>
       </c>
       <c r="I32" t="n">
-        <v>9.42192</v>
+        <v>9.88017</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>4.55008</v>
+        <v>4.32546</v>
       </c>
       <c r="M32" t="n">
-        <v>7.867</v>
+        <v>7.54078</v>
       </c>
       <c r="N32" t="n">
-        <v>8.29312</v>
+        <v>8.155530000000001</v>
       </c>
       <c r="O32" t="n">
         <v>1820788</v>
@@ -4369,24 +4369,24 @@
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>4.4053212416639</v>
+        <v>4.39081122092456</v>
       </c>
       <c r="H49" t="n">
-        <v>11.9184523529977</v>
+        <v>11.0343868404646</v>
       </c>
       <c r="I49" t="n">
-        <v>8.99245</v>
+        <v>9.79823</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>4.4</v>
+        <v>4.24668</v>
       </c>
       <c r="M49" t="n">
-        <v>7.629</v>
+        <v>7.43971</v>
       </c>
       <c r="N49" t="n">
-        <v>8.271789999999999</v>
+        <v>8.8164</v>
       </c>
       <c r="O49" t="n">
         <v>1820788</v>
@@ -5735,16 +5735,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3.28672</v>
+        <v>3.225</v>
       </c>
       <c r="G66" t="n">
-        <v>4.03608283748379</v>
+        <v>3.97888280115956</v>
       </c>
       <c r="H66" t="n">
-        <v>9.64910533061212</v>
+        <v>11.0343868404646</v>
       </c>
       <c r="I66" t="n">
-        <v>8.25755</v>
+        <v>8.99033</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -5752,10 +5752,10 @@
         <v>3.82</v>
       </c>
       <c r="M66" t="n">
-        <v>6.4951</v>
+        <v>6.22684</v>
       </c>
       <c r="N66" t="n">
-        <v>8.016489999999999</v>
+        <v>8</v>
       </c>
       <c r="O66" t="n">
         <v>1820788</v>
@@ -7107,13 +7107,13 @@
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>3.41449516964537</v>
+        <v>3.42091845557811</v>
       </c>
       <c r="H83" t="n">
-        <v>8.983228230618449</v>
+        <v>10.1119882551862</v>
       </c>
       <c r="I83" t="n">
-        <v>8.011990000000001</v>
+        <v>7.93959</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7121,10 +7121,10 @@
         <v>3.01</v>
       </c>
       <c r="M83" t="n">
-        <v>5.0445</v>
+        <v>5.01235</v>
       </c>
       <c r="N83" t="n">
-        <v>6.89</v>
+        <v>6.78529</v>
       </c>
       <c r="O83" t="n">
         <v>1820788</v>
@@ -8476,13 +8476,13 @@
         <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>3.36176307663652</v>
+        <v>3.4383470604172</v>
       </c>
       <c r="H100" t="n">
-        <v>8.983228230618449</v>
+        <v>10.1119882551862</v>
       </c>
       <c r="I100" t="n">
-        <v>8.00665</v>
+        <v>8.070740000000001</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -8493,7 +8493,7 @@
         <v>5.0285</v>
       </c>
       <c r="N100" t="n">
-        <v>6.18999</v>
+        <v>6.96841</v>
       </c>
       <c r="O100" t="n">
         <v>1820788</v>
@@ -9922,13 +9922,13 @@
         <v>2.8</v>
       </c>
       <c r="G118" t="n">
-        <v>3.00864313610943</v>
+        <v>3.05993067686308</v>
       </c>
       <c r="H118" t="n">
-        <v>8.983228230618449</v>
+        <v>10.1119882551862</v>
       </c>
       <c r="I118" t="n">
-        <v>6.40495</v>
+        <v>6.59721</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -16889,10 +16889,10 @@
         <v>130</v>
       </c>
       <c r="G205" t="n">
-        <v>558.870144232736</v>
+        <v>491.926266093908</v>
       </c>
       <c r="H205" t="n">
-        <v>9101.46836549868</v>
+        <v>5218.72343344669</v>
       </c>
       <c r="I205" t="n">
         <v>2440</v>
@@ -16974,10 +16974,10 @@
         <v>130</v>
       </c>
       <c r="G206" t="n">
-        <v>558.870144232736</v>
+        <v>491.926266093908</v>
       </c>
       <c r="H206" t="n">
-        <v>9101.46836549868</v>
+        <v>5218.72343344669</v>
       </c>
       <c r="I206" t="n">
         <v>2440</v>
@@ -17059,10 +17059,10 @@
         <v>130</v>
       </c>
       <c r="G207" t="n">
-        <v>558.870144232736</v>
+        <v>491.926266093908</v>
       </c>
       <c r="H207" t="n">
-        <v>9101.46836549868</v>
+        <v>5218.72343344669</v>
       </c>
       <c r="I207" t="n">
         <v>2440</v>
@@ -17144,10 +17144,10 @@
         <v>130</v>
       </c>
       <c r="G208" t="n">
-        <v>558.870144232736</v>
+        <v>491.926266093908</v>
       </c>
       <c r="H208" t="n">
-        <v>9101.46836549868</v>
+        <v>5218.72343344669</v>
       </c>
       <c r="I208" t="n">
         <v>2440</v>
@@ -18570,7 +18570,7 @@
         <v>145</v>
       </c>
       <c r="G226" t="n">
-        <v>813.042558025839</v>
+        <v>746.0986798870121</v>
       </c>
       <c r="H226" t="n">
         <v>15000</v>
@@ -18655,7 +18655,7 @@
         <v>145</v>
       </c>
       <c r="G227" t="n">
-        <v>813.042558025839</v>
+        <v>746.0986798870121</v>
       </c>
       <c r="H227" t="n">
         <v>15000</v>
@@ -18740,7 +18740,7 @@
         <v>145</v>
       </c>
       <c r="G228" t="n">
-        <v>813.042558025839</v>
+        <v>746.0986798870121</v>
       </c>
       <c r="H228" t="n">
         <v>15000</v>
@@ -18825,7 +18825,7 @@
         <v>145</v>
       </c>
       <c r="G229" t="n">
-        <v>813.042558025839</v>
+        <v>746.0986798870121</v>
       </c>
       <c r="H229" t="n">
         <v>15000</v>
@@ -20251,7 +20251,7 @@
         <v>145</v>
       </c>
       <c r="G247" t="n">
-        <v>794.663247681012</v>
+        <v>727.719369542184</v>
       </c>
       <c r="H247" t="n">
         <v>15000</v>
@@ -20336,7 +20336,7 @@
         <v>145</v>
       </c>
       <c r="G248" t="n">
-        <v>794.663247681012</v>
+        <v>727.719369542184</v>
       </c>
       <c r="H248" t="n">
         <v>15000</v>
@@ -20421,7 +20421,7 @@
         <v>145</v>
       </c>
       <c r="G249" t="n">
-        <v>794.663247681012</v>
+        <v>727.719369542184</v>
       </c>
       <c r="H249" t="n">
         <v>15000</v>
@@ -20506,7 +20506,7 @@
         <v>145</v>
       </c>
       <c r="G250" t="n">
-        <v>794.663247681012</v>
+        <v>727.719369542184</v>
       </c>
       <c r="H250" t="n">
         <v>15000</v>
